--- a/biology/Zoologie/Biton_rhodesianus/Biton_rhodesianus.xlsx
+++ b/biology/Zoologie/Biton_rhodesianus/Biton_rhodesianus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Biton rhodesianus est une espèce de solifuges de la famille des Daesiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Afrique du Sud et au Zimbabwe[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Afrique du Sud et au Zimbabwe.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 18 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 18 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, le Rhodésie.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Hewitt, 1914 : Records of species of Solifugae in the collection of the Transvaal Museum and descriptions of several new species of the family Solpugidae. Annals of the Transvaal Museum, vol. 4, p. 160-167 (texte intégral).</t>
         </is>
